--- a/Conrarh_2016/Conrarh_2016/docs/material/Lista de expositores - Conarh 2016.xlsx
+++ b/Conrarh_2016/Conrarh_2016/docs/material/Lista de expositores - Conarh 2016.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ISO - Pastas\Projetos e Produtos\CONARH\2016\Fornecedores\App\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="133">
   <si>
     <t xml:space="preserve">SPAÇO QUALITY </t>
   </si>
@@ -420,6 +415,9 @@
   </si>
   <si>
     <t>MÍDIA OFICIAL</t>
+  </si>
+  <si>
+    <t>Nome da imagem Logo</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1103,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1113,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,16 +1122,20 @@
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
       <c r="B1" s="47" t="s">
         <v>131</v>
       </c>
       <c r="C1" s="46"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>14</v>
       </c>
@@ -1144,24 +1146,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="24"/>
       <c r="C4" s="23"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="11" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
@@ -1172,7 +1174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>33</v>
       </c>
@@ -1183,19 +1185,19 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="42"/>
       <c r="C8" s="41"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
@@ -1206,7 +1208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>78</v>
       </c>
@@ -1217,7 +1219,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>76</v>
       </c>
@@ -1228,14 +1230,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="11" t="s">
         <v>123</v>
       </c>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1244,7 +1246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="37">
         <v>30</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>75</v>
       </c>
